--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2252,28 +2252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>602.121227854009</v>
+        <v>688.4549953173951</v>
       </c>
       <c r="AB2" t="n">
-        <v>823.848827663656</v>
+        <v>941.9744970840711</v>
       </c>
       <c r="AC2" t="n">
-        <v>745.2218518305278</v>
+        <v>852.0737731518767</v>
       </c>
       <c r="AD2" t="n">
-        <v>602121.227854009</v>
+        <v>688454.9953173951</v>
       </c>
       <c r="AE2" t="n">
-        <v>823848.8276636561</v>
+        <v>941974.4970840712</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.444728497848516e-06</v>
+        <v>2.082813663555858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.03587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>745221.8518305279</v>
+        <v>852073.7731518768</v>
       </c>
     </row>
     <row r="3">
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.0851877109597</v>
+        <v>432.5188517878952</v>
       </c>
       <c r="AB3" t="n">
-        <v>509.1033690660884</v>
+        <v>591.7913744012435</v>
       </c>
       <c r="AC3" t="n">
-        <v>460.5152580534864</v>
+        <v>535.3116362127987</v>
       </c>
       <c r="AD3" t="n">
-        <v>372085.1877109597</v>
+        <v>432518.8517878952</v>
       </c>
       <c r="AE3" t="n">
-        <v>509103.3690660884</v>
+        <v>591791.3744012435</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.007410570113919e-06</v>
+        <v>2.894012383659731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.13888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>460515.2580534864</v>
+        <v>535311.6362127987</v>
       </c>
     </row>
     <row r="4">
@@ -2464,28 +2464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>311.0677871800183</v>
+        <v>371.5013617484028</v>
       </c>
       <c r="AB4" t="n">
-        <v>425.6166697619275</v>
+        <v>508.3045526275343</v>
       </c>
       <c r="AC4" t="n">
-        <v>384.9964121565962</v>
+        <v>459.7926795346818</v>
       </c>
       <c r="AD4" t="n">
-        <v>311067.7871800183</v>
+        <v>371501.3617484028</v>
       </c>
       <c r="AE4" t="n">
-        <v>425616.6697619276</v>
+        <v>508304.5526275343</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.229405821137427e-06</v>
+        <v>3.214055037185872e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.63425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>384996.4121565962</v>
+        <v>459792.6795346818</v>
       </c>
     </row>
     <row r="5">
@@ -2570,28 +2570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>277.7327633259789</v>
+        <v>338.0809970397917</v>
       </c>
       <c r="AB5" t="n">
-        <v>380.0062194873708</v>
+        <v>462.5773352307799</v>
       </c>
       <c r="AC5" t="n">
-        <v>343.7389592415742</v>
+        <v>418.429603587721</v>
       </c>
       <c r="AD5" t="n">
-        <v>277732.7633259789</v>
+        <v>338080.9970397917</v>
       </c>
       <c r="AE5" t="n">
-        <v>380006.2194873708</v>
+        <v>462577.3352307798</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.351878715716755e-06</v>
+        <v>3.390619851007249e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.9224537037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>343738.9592415742</v>
+        <v>418429.603587721</v>
       </c>
     </row>
     <row r="6">
@@ -2676,28 +2676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>268.0387327575347</v>
+        <v>328.3869664713476</v>
       </c>
       <c r="AB6" t="n">
-        <v>366.7424191931803</v>
+        <v>449.3135349365894</v>
       </c>
       <c r="AC6" t="n">
-        <v>331.7410374316005</v>
+        <v>406.4316817777475</v>
       </c>
       <c r="AD6" t="n">
-        <v>268038.7327575347</v>
+        <v>328386.9664713476</v>
       </c>
       <c r="AE6" t="n">
-        <v>366742.4191931803</v>
+        <v>449313.5349365894</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.391004919173702e-06</v>
+        <v>3.44702670619461e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>331741.0374316006</v>
+        <v>406431.6817777475</v>
       </c>
     </row>
   </sheetData>
@@ -2973,28 +2973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>459.3942809153273</v>
+        <v>535.0658415643341</v>
       </c>
       <c r="AB2" t="n">
-        <v>628.5635221936494</v>
+        <v>732.1006898672641</v>
       </c>
       <c r="AC2" t="n">
-        <v>568.5743018299308</v>
+        <v>662.2300275361033</v>
       </c>
       <c r="AD2" t="n">
-        <v>459394.2809153273</v>
+        <v>535065.841564334</v>
       </c>
       <c r="AE2" t="n">
-        <v>628563.5221936494</v>
+        <v>732100.6898672641</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.709370433932837e-06</v>
+        <v>2.502454010551892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.39120370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>568574.3018299309</v>
+        <v>662230.0275361033</v>
       </c>
     </row>
     <row r="3">
@@ -3079,28 +3079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>308.8673446199698</v>
+        <v>367.7040581589703</v>
       </c>
       <c r="AB3" t="n">
-        <v>422.6059271745947</v>
+        <v>503.1089143312619</v>
       </c>
       <c r="AC3" t="n">
-        <v>382.2730106161947</v>
+        <v>455.0929056652816</v>
       </c>
       <c r="AD3" t="n">
-        <v>308867.3446199698</v>
+        <v>367704.0581589703</v>
       </c>
       <c r="AE3" t="n">
-        <v>422605.9271745947</v>
+        <v>503108.9143312619</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.235986701170894e-06</v>
+        <v>3.273400415035873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>382273.0106161946</v>
+        <v>455092.9056652816</v>
       </c>
     </row>
     <row r="4">
@@ -3185,28 +3185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.3234656988355</v>
+        <v>315.1600897292883</v>
       </c>
       <c r="AB4" t="n">
-        <v>350.7130739621965</v>
+        <v>431.2159386494854</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.24151041224</v>
+        <v>390.0612946801487</v>
       </c>
       <c r="AD4" t="n">
-        <v>256323.4656988355</v>
+        <v>315160.0897292883</v>
       </c>
       <c r="AE4" t="n">
-        <v>350713.0739621965</v>
+        <v>431215.9386494854</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.440157126455184e-06</v>
+        <v>3.572298236974468e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.88194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>317241.5104122399</v>
+        <v>390061.2946801487</v>
       </c>
     </row>
     <row r="5">
@@ -3291,28 +3291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>251.3093777948718</v>
+        <v>310.1460018253245</v>
       </c>
       <c r="AB5" t="n">
-        <v>343.8525776860503</v>
+        <v>424.3554423733357</v>
       </c>
       <c r="AC5" t="n">
-        <v>311.03577027192</v>
+        <v>383.8555545398277</v>
       </c>
       <c r="AD5" t="n">
-        <v>251309.3777948717</v>
+        <v>310146.0018253245</v>
       </c>
       <c r="AE5" t="n">
-        <v>343852.5776860503</v>
+        <v>424355.4423733357</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.468354159643727e-06</v>
+        <v>3.613577632819634e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.73726851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>311035.77027192</v>
+        <v>383855.5545398277</v>
       </c>
     </row>
   </sheetData>
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.002266182187</v>
+        <v>277.3732873218688</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.1215387559675</v>
+        <v>379.5143685595853</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.0011673379576</v>
+        <v>343.2940498760194</v>
       </c>
       <c r="AD2" t="n">
-        <v>223002.266182187</v>
+        <v>277373.2873218688</v>
       </c>
       <c r="AE2" t="n">
-        <v>305121.5387559676</v>
+        <v>379514.3685595853</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.57839322746582e-06</v>
+        <v>3.989092581481901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.60532407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>276001.1673379575</v>
+        <v>343294.0498760194</v>
       </c>
     </row>
     <row r="3">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.4512791799544</v>
+        <v>274.6517081190439</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.6311657979108</v>
+        <v>375.7905838266797</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.8439106762473</v>
+        <v>339.9256579316576</v>
       </c>
       <c r="AD3" t="n">
-        <v>220451.2791799543</v>
+        <v>274651.7081190438</v>
       </c>
       <c r="AE3" t="n">
-        <v>301631.1657979108</v>
+        <v>375790.5838266797</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.609190146408535e-06</v>
+        <v>4.036739216439762e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.44328703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>272843.9106762473</v>
+        <v>339925.6579316576</v>
       </c>
     </row>
   </sheetData>
@@ -3991,28 +3991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.0087358236077</v>
+        <v>354.1590839143707</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.7486995714015</v>
+        <v>484.5760830077108</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.8337359632002</v>
+        <v>438.3288217522581</v>
       </c>
       <c r="AD2" t="n">
-        <v>298008.7358236077</v>
+        <v>354159.0839143707</v>
       </c>
       <c r="AE2" t="n">
-        <v>407748.6995714015</v>
+        <v>484576.0830077109</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.229517578432047e-06</v>
+        <v>3.369456468814034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.05208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>368833.7359632002</v>
+        <v>438328.8217522581</v>
       </c>
     </row>
     <row r="3">
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>233.2513038637604</v>
+        <v>281.3801864427818</v>
       </c>
       <c r="AB3" t="n">
-        <v>319.1447242675201</v>
+        <v>384.9967847087318</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.6859997059564</v>
+        <v>348.2532319225107</v>
       </c>
       <c r="AD3" t="n">
-        <v>233251.3038637604</v>
+        <v>281380.1864427818</v>
       </c>
       <c r="AE3" t="n">
-        <v>319144.7242675201</v>
+        <v>384996.7847087318</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.578659033667491e-06</v>
+        <v>3.897111844243526e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.0150462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>288685.9997059564</v>
+        <v>348253.2319225107</v>
       </c>
     </row>
   </sheetData>
@@ -4394,28 +4394,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.6941720776581</v>
+        <v>271.5206021916283</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.2270143424558</v>
+        <v>371.5064665621452</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.6692080614524</v>
+        <v>336.050410806054</v>
       </c>
       <c r="AD2" t="n">
-        <v>218694.1720776581</v>
+        <v>271520.6021916282</v>
       </c>
       <c r="AE2" t="n">
-        <v>299227.0143424558</v>
+        <v>371506.4665621453</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.585826448653896e-06</v>
+        <v>4.086867647207561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.09143518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>270669.2080614524</v>
+        <v>336050.410806054</v>
       </c>
     </row>
   </sheetData>
@@ -4691,28 +4691,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>495.0677621153949</v>
+        <v>571.335495495909</v>
       </c>
       <c r="AB2" t="n">
-        <v>677.3735529744991</v>
+        <v>781.7264304806469</v>
       </c>
       <c r="AC2" t="n">
-        <v>612.7259717783649</v>
+        <v>707.1195571155092</v>
       </c>
       <c r="AD2" t="n">
-        <v>495067.7621153949</v>
+        <v>571335.495495909</v>
       </c>
       <c r="AE2" t="n">
-        <v>677373.5529744992</v>
+        <v>781726.4304806469</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.637697067403774e-06</v>
+        <v>2.387576099953592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.02777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>612725.9717783649</v>
+        <v>707119.5571155092</v>
       </c>
     </row>
     <row r="3">
@@ -4797,28 +4797,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>321.4586433333153</v>
+        <v>380.692670554377</v>
       </c>
       <c r="AB3" t="n">
-        <v>439.8338975630889</v>
+        <v>520.8805068277946</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.8567676904193</v>
+        <v>471.168402316532</v>
       </c>
       <c r="AD3" t="n">
-        <v>321458.6433333153</v>
+        <v>380692.670554377</v>
       </c>
       <c r="AE3" t="n">
-        <v>439833.8975630889</v>
+        <v>520880.5068277946</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.179557976972489e-06</v>
+        <v>3.177547690509299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.29398148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>397856.7676904193</v>
+        <v>471168.402316532</v>
       </c>
     </row>
     <row r="4">
@@ -4903,28 +4903,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.4163439541884</v>
+        <v>328.2615293773814</v>
       </c>
       <c r="AB4" t="n">
-        <v>379.5732805434497</v>
+        <v>449.141906370731</v>
       </c>
       <c r="AC4" t="n">
-        <v>343.3473393828272</v>
+        <v>406.2764332013323</v>
       </c>
       <c r="AD4" t="n">
-        <v>277416.3439541885</v>
+        <v>328261.5293773814</v>
       </c>
       <c r="AE4" t="n">
-        <v>379573.2805434497</v>
+        <v>449141.906370731</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.377856241076381e-06</v>
+        <v>3.466644010860717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.10185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>343347.3393828272</v>
+        <v>406276.4332013323</v>
       </c>
     </row>
     <row r="5">
@@ -5009,28 +5009,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>255.6340709958372</v>
+        <v>314.8680087083511</v>
       </c>
       <c r="AB5" t="n">
-        <v>349.7698137156068</v>
+        <v>430.8163005109338</v>
       </c>
       <c r="AC5" t="n">
-        <v>316.3882735997104</v>
+        <v>389.6997974446449</v>
       </c>
       <c r="AD5" t="n">
-        <v>255634.0709958372</v>
+        <v>314868.0087083511</v>
       </c>
       <c r="AE5" t="n">
-        <v>349769.8137156068</v>
+        <v>430816.3005109338</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.446988733910863e-06</v>
+        <v>3.567431324282173e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.73148148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>316388.2735997104</v>
+        <v>389699.7974446449</v>
       </c>
     </row>
   </sheetData>
@@ -5306,28 +5306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.2770555035239</v>
+        <v>273.6746104973053</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.1833205762985</v>
+        <v>374.4536757541123</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.2023159459577</v>
+        <v>338.7163424891738</v>
       </c>
       <c r="AD2" t="n">
-        <v>214277.0555035239</v>
+        <v>273674.6104973053</v>
       </c>
       <c r="AE2" t="n">
-        <v>293183.3205762985</v>
+        <v>374453.6757541123</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544931231796717e-06</v>
+        <v>4.077577631775287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.65277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>265202.3159459577</v>
+        <v>338716.3424891738</v>
       </c>
     </row>
   </sheetData>
@@ -5603,28 +5603,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>369.963567164804</v>
+        <v>443.9771417079884</v>
       </c>
       <c r="AB2" t="n">
-        <v>506.2004742355455</v>
+        <v>607.4691121739896</v>
       </c>
       <c r="AC2" t="n">
-        <v>457.889411431332</v>
+        <v>549.4931126963571</v>
       </c>
       <c r="AD2" t="n">
-        <v>369963.567164804</v>
+        <v>443977.1417079885</v>
       </c>
       <c r="AE2" t="n">
-        <v>506200.4742355455</v>
+        <v>607469.1121739896</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.946686576449102e-06</v>
+        <v>2.890524319983712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.63773148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>457889.411431332</v>
+        <v>549493.1126963571</v>
       </c>
     </row>
     <row r="3">
@@ -5709,28 +5709,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.7619670610721</v>
+        <v>318.2238646142902</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.7860273390347</v>
+        <v>435.4079306113536</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.7348696421309</v>
+        <v>393.8532088126739</v>
       </c>
       <c r="AD3" t="n">
-        <v>260761.9670610721</v>
+        <v>318223.8646142902</v>
       </c>
       <c r="AE3" t="n">
-        <v>356786.0273390347</v>
+        <v>435407.9306113536</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.434967538187191e-06</v>
+        <v>3.615544984308349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.30439814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>322734.8696421309</v>
+        <v>393853.2088126739</v>
       </c>
     </row>
     <row r="4">
@@ -5815,28 +5815,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.7134168332927</v>
+        <v>296.2605657325344</v>
       </c>
       <c r="AB4" t="n">
-        <v>326.6182282038478</v>
+        <v>405.3567761289737</v>
       </c>
       <c r="AC4" t="n">
-        <v>295.4462429157319</v>
+        <v>366.6700943370322</v>
       </c>
       <c r="AD4" t="n">
-        <v>238713.4168332927</v>
+        <v>296260.5657325344</v>
       </c>
       <c r="AE4" t="n">
-        <v>326618.2282038478</v>
+        <v>405356.7761289737</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.521898678113736e-06</v>
+        <v>3.74462409604699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.84722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>295446.242915732</v>
+        <v>366670.0943370322</v>
       </c>
     </row>
   </sheetData>
@@ -6112,28 +6112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>425.6342182846308</v>
+        <v>500.8607733794511</v>
       </c>
       <c r="AB2" t="n">
-        <v>582.371515113483</v>
+        <v>685.2998065556005</v>
       </c>
       <c r="AC2" t="n">
-        <v>526.7907950746064</v>
+        <v>619.8957548422525</v>
       </c>
       <c r="AD2" t="n">
-        <v>425634.2182846308</v>
+        <v>500860.7733794511</v>
       </c>
       <c r="AE2" t="n">
-        <v>582371.5151134831</v>
+        <v>685299.8065556005</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.784181817695281e-06</v>
+        <v>2.623536735252024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.78935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>526790.7950746064</v>
+        <v>619895.7548422525</v>
       </c>
     </row>
     <row r="3">
@@ -6218,28 +6218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>287.9966302338851</v>
+        <v>346.5061730854119</v>
       </c>
       <c r="AB3" t="n">
-        <v>394.0496950006183</v>
+        <v>474.1050327889319</v>
       </c>
       <c r="AC3" t="n">
-        <v>356.4421451619789</v>
+        <v>428.8571138701481</v>
       </c>
       <c r="AD3" t="n">
-        <v>287996.6302338851</v>
+        <v>346506.173085412</v>
       </c>
       <c r="AE3" t="n">
-        <v>394049.6950006183</v>
+        <v>474105.0327889319</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.295178159506689e-06</v>
+        <v>3.374927462937712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.83101851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>356442.145161979</v>
+        <v>428857.1138701481</v>
       </c>
     </row>
     <row r="4">
@@ -6324,28 +6324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.0211805178623</v>
+        <v>305.4453825148207</v>
       </c>
       <c r="AB4" t="n">
-        <v>337.9852769897368</v>
+        <v>417.9238476560163</v>
       </c>
       <c r="AC4" t="n">
-        <v>305.7284365192526</v>
+        <v>378.0377821955295</v>
       </c>
       <c r="AD4" t="n">
-        <v>247021.1805178623</v>
+        <v>305445.3825148207</v>
       </c>
       <c r="AE4" t="n">
-        <v>337985.2769897368</v>
+        <v>417923.8476560164</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.485821422803508e-06</v>
+        <v>3.655257415651617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.7662037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>305728.4365192526</v>
+        <v>378037.7821955295</v>
       </c>
     </row>
     <row r="5">
@@ -6430,28 +6430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>247.6214196503437</v>
+        <v>306.045621647302</v>
       </c>
       <c r="AB5" t="n">
-        <v>338.806550651479</v>
+        <v>418.7451213177589</v>
       </c>
       <c r="AC5" t="n">
-        <v>306.4713289753832</v>
+        <v>378.7806746516602</v>
       </c>
       <c r="AD5" t="n">
-        <v>247621.4196503437</v>
+        <v>306045.621647302</v>
       </c>
       <c r="AE5" t="n">
-        <v>338806.550651479</v>
+        <v>418745.1213177589</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.483408216938991e-06</v>
+        <v>3.651708935237516e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.77777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>306471.3289753832</v>
+        <v>378780.6746516602</v>
       </c>
     </row>
   </sheetData>
@@ -6727,28 +6727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>562.0124887083352</v>
+        <v>647.7471894456064</v>
       </c>
       <c r="AB2" t="n">
-        <v>768.9702812918571</v>
+        <v>886.2762811886433</v>
       </c>
       <c r="AC2" t="n">
-        <v>695.5808369019298</v>
+        <v>801.6913168085716</v>
       </c>
       <c r="AD2" t="n">
-        <v>562012.4887083352</v>
+        <v>647747.1894456064</v>
       </c>
       <c r="AE2" t="n">
-        <v>768970.2812918571</v>
+        <v>886276.2811886433</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.50551026116269e-06</v>
+        <v>2.17813085435289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.34722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>695580.8369019298</v>
+        <v>801691.3168085716</v>
       </c>
     </row>
     <row r="3">
@@ -6833,28 +6833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>349.3771603448719</v>
+        <v>417.9477811569337</v>
       </c>
       <c r="AB3" t="n">
-        <v>478.0332442163436</v>
+        <v>571.8545927336944</v>
       </c>
       <c r="AC3" t="n">
-        <v>432.4104223122071</v>
+        <v>517.2775930061515</v>
       </c>
       <c r="AD3" t="n">
-        <v>349377.1603448719</v>
+        <v>417947.7811569337</v>
       </c>
       <c r="AE3" t="n">
-        <v>478033.2442163436</v>
+        <v>571854.5927336944</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.060726394608813e-06</v>
+        <v>2.981402291479833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.86689814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>432410.4223122071</v>
+        <v>517277.5930061515</v>
       </c>
     </row>
     <row r="4">
@@ -6939,28 +6939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.6279103726707</v>
+        <v>359.5312846303827</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.9641256223691</v>
+        <v>491.9265650321271</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.8377248612336</v>
+        <v>444.9777840887303</v>
       </c>
       <c r="AD4" t="n">
-        <v>299627.9103726707</v>
+        <v>359531.2846303827</v>
       </c>
       <c r="AE4" t="n">
-        <v>409964.1256223691</v>
+        <v>491926.5650321271</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.278249572748603e-06</v>
+        <v>3.296108845174971e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.44907407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>370837.7248612336</v>
+        <v>444977.7840887303</v>
       </c>
     </row>
     <row r="5">
@@ -7045,28 +7045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>267.2682720769245</v>
+        <v>327.2568976806571</v>
       </c>
       <c r="AB5" t="n">
-        <v>365.6882408996431</v>
+        <v>447.7673249620502</v>
       </c>
       <c r="AC5" t="n">
-        <v>330.7874684348499</v>
+        <v>405.033039913059</v>
       </c>
       <c r="AD5" t="n">
-        <v>267268.2720769244</v>
+        <v>327256.8976806571</v>
       </c>
       <c r="AE5" t="n">
-        <v>365688.240899643</v>
+        <v>447767.3249620502</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.395454809156852e-06</v>
+        <v>3.465678158847649e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.78935185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>330787.4684348499</v>
+        <v>405033.039913059</v>
       </c>
     </row>
     <row r="6">
@@ -7151,28 +7151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>264.0920339957964</v>
+        <v>324.0806595995292</v>
       </c>
       <c r="AB6" t="n">
-        <v>361.3423718313092</v>
+        <v>443.4214558937164</v>
       </c>
       <c r="AC6" t="n">
-        <v>326.8563630109323</v>
+        <v>401.1019344891413</v>
       </c>
       <c r="AD6" t="n">
-        <v>264092.0339957965</v>
+        <v>324080.6595995292</v>
       </c>
       <c r="AE6" t="n">
-        <v>361342.3718313092</v>
+        <v>443421.4558937164</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.411653906871814e-06</v>
+        <v>3.489114568054442e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.7025462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>326856.3630109323</v>
+        <v>401101.9344891413</v>
       </c>
     </row>
   </sheetData>
@@ -7448,28 +7448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.8285771357467</v>
+        <v>383.5950510013381</v>
       </c>
       <c r="AB2" t="n">
-        <v>436.2353249612439</v>
+        <v>524.8516717993152</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.601637807066</v>
+        <v>474.7605648767357</v>
       </c>
       <c r="AD2" t="n">
-        <v>318828.5771357467</v>
+        <v>383595.0510013381</v>
       </c>
       <c r="AE2" t="n">
-        <v>436235.3249612439</v>
+        <v>524851.6717993153</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.126818258756072e-06</v>
+        <v>3.193810256022303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.58449074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>394601.637807066</v>
+        <v>474760.5648767357</v>
       </c>
     </row>
     <row r="3">
@@ -7554,28 +7554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.4132062648468</v>
+        <v>286.9985300426706</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.2615139246591</v>
+        <v>392.6840502859259</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.1733975080969</v>
+        <v>355.2068356621623</v>
       </c>
       <c r="AD3" t="n">
-        <v>230413.2062648468</v>
+        <v>286998.5300426706</v>
       </c>
       <c r="AE3" t="n">
-        <v>315261.5139246591</v>
+        <v>392684.0502859259</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.553258606523676e-06</v>
+        <v>3.834189165068567e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.98032407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>285173.3975080969</v>
+        <v>355206.8356621623</v>
       </c>
     </row>
     <row r="4">
@@ -7660,28 +7660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.5691806518905</v>
+        <v>287.1545044297143</v>
       </c>
       <c r="AB4" t="n">
-        <v>315.4749249621166</v>
+        <v>392.8974613233834</v>
       </c>
       <c r="AC4" t="n">
-        <v>285.3664408956637</v>
+        <v>355.3998790497292</v>
       </c>
       <c r="AD4" t="n">
-        <v>230569.1806518905</v>
+        <v>287154.5044297143</v>
       </c>
       <c r="AE4" t="n">
-        <v>315474.9249621166</v>
+        <v>392897.4613233834</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.55938661044674e-06</v>
+        <v>3.843391494274577e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.95138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>285366.4408956637</v>
+        <v>355399.8790497292</v>
       </c>
     </row>
   </sheetData>
@@ -7957,28 +7957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.6987166925896</v>
+        <v>304.6208092911352</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.6488001085561</v>
+        <v>416.7956301937667</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.0423181333999</v>
+        <v>377.0172402244138</v>
       </c>
       <c r="AD2" t="n">
-        <v>249698.7166925896</v>
+        <v>304620.8092911352</v>
       </c>
       <c r="AE2" t="n">
-        <v>341648.8001085562</v>
+        <v>416795.6301937667</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.458185836598078e-06</v>
+        <v>3.770234535029409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.04513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>309042.3181333999</v>
+        <v>377017.2402244138</v>
       </c>
     </row>
     <row r="3">
@@ -8063,28 +8063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.943911321633</v>
+        <v>279.7806630656066</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.7781832950942</v>
+        <v>382.8082462580896</v>
       </c>
       <c r="AC3" t="n">
-        <v>278.4042654508947</v>
+        <v>346.2735645099648</v>
       </c>
       <c r="AD3" t="n">
-        <v>224943.911321633</v>
+        <v>279780.6630656066</v>
       </c>
       <c r="AE3" t="n">
-        <v>307778.1832950942</v>
+        <v>382808.2462580896</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.601363752089775e-06</v>
+        <v>3.989833197426463e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.26967592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>278404.2654508947</v>
+        <v>346273.5645099648</v>
       </c>
     </row>
   </sheetData>
@@ -13869,28 +13869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.2222933771346</v>
+        <v>268.9001140077771</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.4766367359238</v>
+        <v>367.9209990212207</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.3721998264896</v>
+        <v>332.807135255</v>
       </c>
       <c r="AD2" t="n">
-        <v>215222.2933771346</v>
+        <v>268900.1140077771</v>
       </c>
       <c r="AE2" t="n">
-        <v>294476.6367359238</v>
+        <v>367920.9990212207</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.606320932644207e-06</v>
+        <v>4.072325046623434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.7037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>266372.1998264896</v>
+        <v>332807.135255</v>
       </c>
     </row>
   </sheetData>
@@ -14166,28 +14166,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.2358987334865</v>
+        <v>276.5699480068067</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.5999845353675</v>
+        <v>378.4152042678881</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.1020210991106</v>
+        <v>342.299788281635</v>
       </c>
       <c r="AD2" t="n">
-        <v>218235.8987334865</v>
+        <v>276569.9480068067</v>
       </c>
       <c r="AE2" t="n">
-        <v>298599.9845353675</v>
+        <v>378415.2042678881</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.442083399759813e-06</v>
+        <v>3.979805031617588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>270102.0210991106</v>
+        <v>342299.788281635</v>
       </c>
     </row>
   </sheetData>
@@ -14463,28 +14463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.3084350422685</v>
+        <v>475.8126035946671</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.0879053034676</v>
+        <v>651.0277956087986</v>
       </c>
       <c r="AC2" t="n">
-        <v>496.6837262710189</v>
+        <v>588.8946165191439</v>
       </c>
       <c r="AD2" t="n">
-        <v>401308.4350422685</v>
+        <v>475812.6035946671</v>
       </c>
       <c r="AE2" t="n">
-        <v>549087.9053034675</v>
+        <v>651027.7956087985</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.863534823502928e-06</v>
+        <v>2.753150577260876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.19907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>496683.726271019</v>
+        <v>588894.6165191439</v>
       </c>
     </row>
     <row r="3">
@@ -14569,28 +14569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.2378746838191</v>
+        <v>332.3182441583675</v>
       </c>
       <c r="AB3" t="n">
-        <v>375.2243586635627</v>
+        <v>454.6924825037011</v>
       </c>
       <c r="AC3" t="n">
-        <v>339.4134725034064</v>
+        <v>411.2972701384543</v>
       </c>
       <c r="AD3" t="n">
-        <v>274237.8746838191</v>
+        <v>332318.2441583675</v>
       </c>
       <c r="AE3" t="n">
-        <v>375224.3586635627</v>
+        <v>454692.4825037011</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.364842419742792e-06</v>
+        <v>3.493772797230286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.55324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>339413.4725034064</v>
+        <v>411297.2701384543</v>
       </c>
     </row>
     <row r="4">
@@ -14675,28 +14675,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>242.956499294843</v>
+        <v>300.9515279148227</v>
       </c>
       <c r="AB4" t="n">
-        <v>332.4238008193248</v>
+        <v>411.7751575374263</v>
       </c>
       <c r="AC4" t="n">
-        <v>300.6977398289621</v>
+        <v>372.4759144321169</v>
       </c>
       <c r="AD4" t="n">
-        <v>242956.499294843</v>
+        <v>300951.5279148227</v>
       </c>
       <c r="AE4" t="n">
-        <v>332423.8008193248</v>
+        <v>411775.1575374263</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.500500132802618e-06</v>
+        <v>3.694190898523667e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.81828703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>300697.7398289621</v>
+        <v>372475.9144321169</v>
       </c>
     </row>
     <row r="5">
@@ -14781,28 +14781,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>242.9834880442547</v>
+        <v>300.9785166642345</v>
       </c>
       <c r="AB5" t="n">
-        <v>332.4607280169295</v>
+        <v>411.812084735031</v>
       </c>
       <c r="AC5" t="n">
-        <v>300.7311427466551</v>
+        <v>372.5093173498098</v>
       </c>
       <c r="AD5" t="n">
-        <v>242983.4880442547</v>
+        <v>300978.5166642345</v>
       </c>
       <c r="AE5" t="n">
-        <v>332460.7280169295</v>
+        <v>411812.084735031</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.507645843290458e-06</v>
+        <v>3.704747834034833e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.78356481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>300731.142746655</v>
+        <v>372509.3173498098</v>
       </c>
     </row>
   </sheetData>
@@ -15078,28 +15078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>523.4714318992457</v>
+        <v>608.7612603063122</v>
       </c>
       <c r="AB2" t="n">
-        <v>716.2367070542366</v>
+        <v>832.9340130024545</v>
       </c>
       <c r="AC2" t="n">
-        <v>647.8800809775114</v>
+        <v>753.439959831729</v>
       </c>
       <c r="AD2" t="n">
-        <v>523471.4318992457</v>
+        <v>608761.2603063122</v>
       </c>
       <c r="AE2" t="n">
-        <v>716236.7070542366</v>
+        <v>832934.0130024545</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.569810019653702e-06</v>
+        <v>2.279629470964767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.67592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>647880.0809775114</v>
+        <v>753439.9598317289</v>
       </c>
     </row>
     <row r="3">
@@ -15184,28 +15184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>336.2071560589546</v>
+        <v>404.3536779300362</v>
       </c>
       <c r="AB3" t="n">
-        <v>460.0134633327689</v>
+        <v>553.2545409691456</v>
       </c>
       <c r="AC3" t="n">
-        <v>416.1104240252394</v>
+        <v>500.4527040766748</v>
       </c>
       <c r="AD3" t="n">
-        <v>336207.1560589547</v>
+        <v>404353.6779300362</v>
       </c>
       <c r="AE3" t="n">
-        <v>460013.4633327689</v>
+        <v>553254.5409691456</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.114911856530291e-06</v>
+        <v>3.071209468839302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.60648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>416110.4240252394</v>
+        <v>500452.7040766748</v>
       </c>
     </row>
     <row r="4">
@@ -15290,28 +15290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>289.1951992213943</v>
+        <v>348.7274869057485</v>
       </c>
       <c r="AB4" t="n">
-        <v>395.6896299664603</v>
+        <v>477.1443323553659</v>
       </c>
       <c r="AC4" t="n">
-        <v>357.9255670363441</v>
+        <v>431.6063469516453</v>
       </c>
       <c r="AD4" t="n">
-        <v>289195.1992213943</v>
+        <v>348727.4869057485</v>
       </c>
       <c r="AE4" t="n">
-        <v>395689.6299664603</v>
+        <v>477144.3323553659</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.323942290647871e-06</v>
+        <v>3.374756988588292e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.29282407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>357925.5670363441</v>
+        <v>431606.3469516453</v>
       </c>
     </row>
     <row r="5">
@@ -15396,28 +15396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>259.32847849257</v>
+        <v>318.9460175229449</v>
       </c>
       <c r="AB5" t="n">
-        <v>354.8246650385578</v>
+        <v>436.3960120801127</v>
       </c>
       <c r="AC5" t="n">
-        <v>320.9606970068222</v>
+        <v>394.7469891728357</v>
       </c>
       <c r="AD5" t="n">
-        <v>259328.47849257</v>
+        <v>318946.0175229449</v>
       </c>
       <c r="AE5" t="n">
-        <v>354824.6650385578</v>
+        <v>436396.0120801126</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.430165621570747e-06</v>
+        <v>3.529011218491378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>320960.6970068222</v>
+        <v>394746.9891728357</v>
       </c>
     </row>
     <row r="6">
@@ -15502,28 +15502,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>260.1940293488601</v>
+        <v>319.811568379235</v>
       </c>
       <c r="AB6" t="n">
-        <v>356.0089499055426</v>
+        <v>437.5802969470976</v>
       </c>
       <c r="AC6" t="n">
-        <v>322.0319553882562</v>
+        <v>395.8182475542699</v>
       </c>
       <c r="AD6" t="n">
-        <v>260194.0293488601</v>
+        <v>319811.568379235</v>
       </c>
       <c r="AE6" t="n">
-        <v>356008.9499055427</v>
+        <v>437580.2969470976</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.428083857798892e-06</v>
+        <v>3.525988145644032e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.71990740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>322031.9553882562</v>
+        <v>395818.2475542699</v>
       </c>
     </row>
   </sheetData>
@@ -15799,28 +15799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.3988864820141</v>
+        <v>302.3546108683464</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.1878739011289</v>
+        <v>413.6949175340887</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.0569610236584</v>
+        <v>374.212455229098</v>
       </c>
       <c r="AD2" t="n">
-        <v>238398.8864820141</v>
+        <v>302354.6108683464</v>
       </c>
       <c r="AE2" t="n">
-        <v>326187.8739011288</v>
+        <v>413694.9175340887</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.203742732764344e-06</v>
+        <v>3.673507838637773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.00925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>295056.9610236584</v>
+        <v>374212.455229098</v>
       </c>
     </row>
   </sheetData>
@@ -16096,28 +16096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.0203478910914</v>
+        <v>333.4753348430467</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.4537524416022</v>
+        <v>456.2756650257176</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.1936048401732</v>
+        <v>412.7293559425801</v>
       </c>
       <c r="AD2" t="n">
-        <v>270020.3478910914</v>
+        <v>333475.3348430467</v>
       </c>
       <c r="AE2" t="n">
-        <v>369453.7524416022</v>
+        <v>456275.6650257176</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.33746601308424e-06</v>
+        <v>3.557405003362659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.55439814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>334193.6048401732</v>
+        <v>412729.3559425802</v>
       </c>
     </row>
     <row r="3">
@@ -16202,28 +16202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.3382258100958</v>
+        <v>276.9935611735449</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.790678241679</v>
+        <v>378.9948104911132</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.842936318369</v>
+        <v>342.8240777003979</v>
       </c>
       <c r="AD3" t="n">
-        <v>229338.2258100958</v>
+        <v>276993.5611735449</v>
       </c>
       <c r="AE3" t="n">
-        <v>313790.678241679</v>
+        <v>378994.8104911132</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.589137047565607e-06</v>
+        <v>3.940424817235438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.14236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>283842.936318369</v>
+        <v>342824.0777003979</v>
       </c>
     </row>
   </sheetData>
@@ -16499,28 +16499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.1706761654958</v>
+        <v>413.4151940437247</v>
       </c>
       <c r="AB2" t="n">
-        <v>476.3824793357957</v>
+        <v>565.6529070817711</v>
       </c>
       <c r="AC2" t="n">
-        <v>430.9172041149956</v>
+        <v>511.6677875287273</v>
       </c>
       <c r="AD2" t="n">
-        <v>348170.6761654958</v>
+        <v>413415.1940437247</v>
       </c>
       <c r="AE2" t="n">
-        <v>476382.4793357957</v>
+        <v>565652.9070817711</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.033813356020297e-06</v>
+        <v>3.036301708846158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.10532407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>430917.2041149956</v>
+        <v>511667.7875287273</v>
       </c>
     </row>
     <row r="3">
@@ -16605,28 +16605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.2494160158945</v>
+        <v>296.2468324426357</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.2975588671839</v>
+        <v>405.3379856358644</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.0109146526065</v>
+        <v>366.6530971822126</v>
       </c>
       <c r="AD3" t="n">
-        <v>247249.4160158945</v>
+        <v>296246.8324426357</v>
       </c>
       <c r="AE3" t="n">
-        <v>338297.5588671839</v>
+        <v>405337.9856358644</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.508575452986825e-06</v>
+        <v>3.74507912052349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>306010.9146526065</v>
+        <v>366653.0971822126</v>
       </c>
     </row>
     <row r="4">
@@ -16711,28 +16711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>234.404616845887</v>
+        <v>291.4828240625366</v>
       </c>
       <c r="AB4" t="n">
-        <v>320.7227379702427</v>
+        <v>398.8196591969964</v>
       </c>
       <c r="AC4" t="n">
-        <v>290.1134099956478</v>
+        <v>360.7568706701414</v>
       </c>
       <c r="AD4" t="n">
-        <v>234404.616845887</v>
+        <v>291482.8240625366</v>
       </c>
       <c r="AE4" t="n">
-        <v>320722.7379702427</v>
+        <v>398819.6591969964</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.543610948697636e-06</v>
+        <v>3.797383986740499e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.87615740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>290113.4099956478</v>
+        <v>360756.8706701414</v>
       </c>
     </row>
   </sheetData>
